--- a/data/n2v/tables/model-1-1325-20230829-65.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-65.xlsx
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
